--- a/QA_Legend/src/test/resources/TestData.xlsx
+++ b/QA_Legend/src/test/resources/TestData.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gayut\eclipse-workspace\QA_Legend\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gayut\git\QALegend\QA_Legend\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368E0821-899B-4D43-8AF2-FA2D54D41A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1236CAF5-2EDE-40DC-B91C-2E5C138557C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="1390" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="1740" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
-    <sheet name="AddUserTest" sheetId="5" r:id="rId2"/>
-    <sheet name="InvalidMailTest" sheetId="2" r:id="rId3"/>
-    <sheet name="ValidMailTest" sheetId="3" r:id="rId4"/>
-    <sheet name="HomePageTest" sheetId="4" r:id="rId5"/>
+    <sheet name="HomePageTest" sheetId="1" r:id="rId1"/>
+    <sheet name="ValidMailTest" sheetId="2" r:id="rId2"/>
+    <sheet name="InvalidMailTest" sheetId="3" r:id="rId3"/>
+    <sheet name="LoginTest" sheetId="4" r:id="rId4"/>
+    <sheet name="AddUserTest" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,40 +29,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>admin</t>
   </si>
   <si>
+    <t>Sneharaj@gmail.com</t>
+  </si>
+  <si>
+    <t>We have e-mailed your password reset link!</t>
+  </si>
+  <si>
     <t>bdcjc@gmail.com</t>
   </si>
   <si>
-    <t>Sneharaj@gmail.com</t>
-  </si>
-  <si>
-    <t>We have e-mailed your password reset link!</t>
-  </si>
-  <si>
-    <t>devas</t>
+    <t>We can't find a user with that e-mail address.</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>These credentials do not match our records.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF2A00FF"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <u/>
@@ -92,13 +92,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -382,11 +381,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -397,11 +399,8 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="A2" s="1">
+        <v>45538</v>
       </c>
     </row>
   </sheetData>
@@ -410,56 +409,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50C0A24-8322-4568-9B2F-6A99CECFE20B}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908DD7B6-0D72-4D30-8973-8F7157862BCA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="15.90625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF51CFF-DF59-462B-8D7B-74ABC76DF59B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC0606A-F1A7-49C1-BCF3-E0C52599F82E}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -469,46 +423,105 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{860DAF5B-5346-4B35-A27B-D2B523847E95}"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{E79881A1-F2C8-4A7B-9FDC-98CB4F7FB1AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260AD409-7D04-4D09-AAB9-6D3C9E46152B}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="39.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{EA841ABD-978A-45ED-9976-1005F6AAF021}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A20F463-4208-408E-BD79-886988F47119}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="38.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2534A7CA-931F-44B5-9006-894A7A485A07}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB56F55A-9BB3-452C-840C-2011725D6696}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>45536</v>
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>123456</v>
       </c>
     </row>
   </sheetData>

--- a/QA_Legend/src/test/resources/TestData.xlsx
+++ b/QA_Legend/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gayut\git\QALegend\QA_Legend\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1236CAF5-2EDE-40DC-B91C-2E5C138557C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075E9BE0-6884-4E3E-89DE-438002DA9B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="1740" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1770" windowWidth="14400" windowHeight="7360" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePageTest" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="InvalidMailTest" sheetId="3" r:id="rId3"/>
     <sheet name="LoginTest" sheetId="4" r:id="rId4"/>
     <sheet name="AddUserTest" sheetId="5" r:id="rId5"/>
+    <sheet name="UserActionsPageTest" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>admin</t>
   </si>
@@ -50,6 +51,12 @@
   </si>
   <si>
     <t>These credentials do not match our records.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sneharaj	</t>
+  </si>
+  <si>
+    <t>Raj</t>
   </si>
 </sst>
 </file>
@@ -381,7 +388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -527,4 +534,37 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24093E6-F3E3-452A-9761-58C7E5C1E896}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/QA_Legend/src/test/resources/TestData.xlsx
+++ b/QA_Legend/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gayut\git\QALegend\QA_Legend\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075E9BE0-6884-4E3E-89DE-438002DA9B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D2539F-418F-40AD-B23C-CD712F330BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1770" windowWidth="14400" windowHeight="7360" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="1760" windowWidth="14400" windowHeight="7360" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePageTest" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="LoginTest" sheetId="4" r:id="rId4"/>
     <sheet name="AddUserTest" sheetId="5" r:id="rId5"/>
     <sheet name="UserActionsPageTest" sheetId="6" r:id="rId6"/>
+    <sheet name="AdminUpdateTest" sheetId="7" r:id="rId7"/>
+    <sheet name="StockTransferPageTest" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>admin</t>
   </si>
@@ -57,6 +59,12 @@
   </si>
   <si>
     <t>Raj</t>
+  </si>
+  <si>
+    <t>Demo Company</t>
+  </si>
+  <si>
+    <t>Profile updated successfully</t>
   </si>
 </sst>
 </file>
@@ -420,7 +428,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -540,7 +548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24093E6-F3E3-452A-9761-58C7E5C1E896}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -567,4 +575,52 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22532DC8-85BD-4BDD-B90C-2BABE167F3D2}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A228AE7-9996-4942-8E30-8A60AE8BFBE1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>